--- a/target/test-classes/Testdata/data.xlsx
+++ b/target/test-classes/Testdata/data.xlsx
@@ -4,47 +4,42 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="17988" windowHeight="4380"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:R13"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>admin123</t>
+    <t>jaikrishnaa</t>
   </si>
   <si>
-    <t>pooja</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Jai</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>dwd</t>
+    <t>jaikrishnaa.git@gamil.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,13 +62,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -373,39 +371,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/target/test-classes/Testdata/data.xlsx
+++ b/target/test-classes/Testdata/data.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/target/test-classes/Testdata/data.xlsx
+++ b/target/test-classes/Testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="no email no name" sheetId="8" r:id="rId6"/>
     <sheet name="no name valid email" sheetId="9" r:id="rId7"/>
     <sheet name="valid name invalid email" sheetId="10" r:id="rId8"/>
+    <sheet name="Login invalid Credentials" sheetId="11" r:id="rId9"/>
+    <sheet name="Login valid Credentials" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>jaikrishnaa</t>
   </si>
@@ -60,6 +62,15 @@
   </si>
   <si>
     <t>jiak@p</t>
+  </si>
+  <si>
+    <t>jaikrishnagit@gmail.com</t>
+  </si>
+  <si>
+    <t>Team@A8</t>
+  </si>
+  <si>
+    <t>Team@A23</t>
   </si>
 </sst>
 </file>
@@ -437,6 +448,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
@@ -617,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -640,4 +681,35 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>